--- a/Overall Stats/Rockport/Rockport Report.xlsx
+++ b/Overall Stats/Rockport/Rockport Report.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Rockport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Rockport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3030D-89CA-4715-9B76-311CB89A30B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC08F4-EF49-493F-9313-F2BDE6F45144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{674343A5-2EB2-41D1-8C1B-CAF58DC40512}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{674343A5-2EB2-41D1-8C1B-CAF58DC40512}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -133,13 +128,19 @@
   </si>
   <si>
     <t>Hot</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Rockport</t>
+  </si>
+  <si>
+    <t>6 Rainbow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,13 +215,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -272,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,8 +311,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,7 +585,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,10 +974,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.4782608695652173</c:v>
+                  <c:v>3.3057851239669422</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.521739130434781</c:v>
+                  <c:v>96.694214876033058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2944,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F94328-B640-403B-974F-D89B1F9D45B8}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,11 +3134,158 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DA4911-E8A8-4AC3-93F8-FAD85E4027E8}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <f>SUM(C4)</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10">
+        <f>AVERAGE(C4)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUM(E4/C5*100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C538E6C-E853-46E0-8DF8-C8F2F75A224C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3172,8 +3316,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <f>SUM('2017'!F4+'2018'!E4+'2019'!H4)</f>
-        <v>111</v>
+        <f>SUM('2017'!F4+'2018'!E4+'2019'!H4+'2020'!E4)</f>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3195,11 +3339,11 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f>SUM(A3/$B$8*100)</f>
-        <v>3.4782608695652173</v>
+        <v>3.3057851239669422</v>
       </c>
       <c r="B6" s="14">
         <f>SUM(B3/$B$8*100)</f>
-        <v>96.521739130434781</v>
+        <v>96.694214876033058</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3207,8 +3351,8 @@
         <v>10</v>
       </c>
       <c r="B8" s="8">
-        <f>SUM('2017'!C10+'2018'!C6+'2019'!E7)</f>
-        <v>115</v>
+        <f>SUM('2017'!C10+'2018'!C6+'2019'!E7+'2020'!C5)</f>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3216,8 +3360,8 @@
         <v>11</v>
       </c>
       <c r="B9" s="8">
-        <f>SUM('2017'!C11+'2018'!C7+'2019'!E8)</f>
-        <v>11</v>
+        <f>SUM('2017'!C11+'2018'!C7+'2019'!E8+'2020'!C6)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3226,15 +3370,15 @@
       </c>
       <c r="B10" s="13">
         <f>SUM(B8/B9)</f>
-        <v>10.454545454545455</v>
+        <v>10.083333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>23</v>
+      <c r="B11" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Overall Stats/Rockport/Rockport Report.xlsx
+++ b/Overall Stats/Rockport/Rockport Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Rockport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EC08F4-EF49-493F-9313-F2BDE6F45144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93A2EC-0E80-4F72-839E-D56C79673949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{674343A5-2EB2-41D1-8C1B-CAF58DC40512}"/>
+    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{674343A5-2EB2-41D1-8C1B-CAF58DC40512}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -314,6 +314,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,9 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2622,12 +2622,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
@@ -2676,12 +2676,12 @@
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2832,12 +2832,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2880,12 +2880,12 @@
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2967,23 +2967,23 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
@@ -3048,12 +3048,12 @@
       <c r="F5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
@@ -3174,12 +3174,12 @@
       <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -3232,12 +3232,12 @@
         <f>SUM(C4)</f>
         <v>6</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -3295,12 +3295,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3321,12 +3321,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3377,7 +3377,7 @@
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Overall Stats/Rockport/Rockport Report.xlsx
+++ b/Overall Stats/Rockport/Rockport Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Rockport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93A2EC-0E80-4F72-839E-D56C79673949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C1CA4A-AFB7-42D1-9A07-7583636215D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{674343A5-2EB2-41D1-8C1B-CAF58DC40512}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{674343A5-2EB2-41D1-8C1B-CAF58DC40512}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3137,7 +3137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DA4911-E8A8-4AC3-93F8-FAD85E4027E8}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3284,7 +3284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C538E6C-E853-46E0-8DF8-C8F2F75A224C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
